--- a/QuanLyChiTieu/Data/Phuc123123/Transaction.xlsx
+++ b/QuanLyChiTieu/Data/Phuc123123/Transaction.xlsx
@@ -16,19 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Ghi chú</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số tiền</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngày giao dịch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loại giao dịch</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mã giao dịch</x:t>
   </x:si>
   <x:si>
-    <x:t>Ngày giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Số tiền</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loại giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghi chú</x:t>
+    <x:t>transt0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rút tiền</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/11/2024 12:00:00 SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aksldfjalsdf</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -387,19 +402,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QuanLyChiTieu/Data/Phuc123123/Transaction.xlsx
+++ b/QuanLyChiTieu/Data/Phuc123123/Transaction.xlsx
@@ -16,34 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Ghi chú</x:t>
+    <x:t>Mã giao dịch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngày giao dịch</x:t>
   </x:si>
   <x:si>
     <x:t>Số tiền</x:t>
   </x:si>
   <x:si>
-    <x:t>Ngày giao dịch</x:t>
-  </x:si>
-  <x:si>
     <x:t>Loại giao dịch</x:t>
   </x:si>
   <x:si>
-    <x:t>Mã giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>transt0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rút tiền</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/11/2024 12:00:00 SA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aksldfjalsdf</x:t>
+    <x:t>Ghi chú</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -402,36 +387,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
